--- a/Gestion de projet/3 Product-Sprint Backlog.xlsx
+++ b/Gestion de projet/3 Product-Sprint Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\OneDrive\Documents\ProxiBanqueV4\V4\Group1\agile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\Desktop\ProxiBanque V4\ProxiBanqueV4\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17928" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Story Mapping" sheetId="2" r:id="rId1"/>
@@ -743,140 +743,140 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,16 +1093,16 @@
                   <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,11 +1118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-80968976"/>
-        <c:axId val="-80970608"/>
+        <c:axId val="-340679088"/>
+        <c:axId val="-340690512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-80968976"/>
+        <c:axId val="-340679088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1161,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-80970608"/>
+        <c:crossAx val="-340690512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1169,7 +1169,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-80970608"/>
+        <c:axId val="-340690512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1222,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-80968976"/>
+        <c:crossAx val="-340679088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1929,318 +1929,318 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="2.77734375" customWidth="1"/>
-    <col min="5" max="5" width="2.109375" customWidth="1"/>
-    <col min="9" max="9" width="1.88671875" customWidth="1"/>
-    <col min="11" max="11" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-    </row>
-    <row r="5" spans="2:15" ht="26.4">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+    </row>
+    <row r="5" spans="2:15" ht="25.5">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="53" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="45"/>
-    </row>
-    <row r="6" spans="2:15" ht="5.4" customHeight="1">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-    </row>
-    <row r="7" spans="2:15" ht="26.4">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="57" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="43"/>
+    </row>
+    <row r="6" spans="2:15" ht="5.45" customHeight="1">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+    </row>
+    <row r="7" spans="2:15" ht="25.5">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57" t="s">
+      <c r="I7" s="49"/>
+      <c r="J7" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="57" t="s">
+      <c r="K7" s="43"/>
+      <c r="L7" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="57" t="s">
+      <c r="M7" s="43"/>
+      <c r="N7" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="45"/>
-    </row>
-    <row r="8" spans="2:15" ht="4.2" customHeight="1">
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-    </row>
-    <row r="9" spans="2:15" ht="39.6">
-      <c r="B9" s="58" t="s">
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="2:15" ht="4.1500000000000004" customHeight="1">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+    </row>
+    <row r="9" spans="2:15" ht="38.25">
+      <c r="B9" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61" t="s">
+      <c r="G9" s="52"/>
+      <c r="H9" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="59" t="s">
+      <c r="I9" s="52"/>
+      <c r="J9" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="59" t="s">
+      <c r="K9" s="54"/>
+      <c r="L9" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63" t="s">
+      <c r="M9" s="54"/>
+      <c r="N9" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="45"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="2:15" ht="6" customHeight="1">
-      <c r="B10" s="64"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="46"/>
-    </row>
-    <row r="11" spans="2:15" ht="26.4">
-      <c r="B11" s="64"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="59" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="44"/>
+    </row>
+    <row r="11" spans="2:15" ht="25.5">
+      <c r="B11" s="72"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="59" t="s">
+      <c r="G11" s="52"/>
+      <c r="H11" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="65"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="59" t="s">
+      <c r="I11" s="56"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="45"/>
-    </row>
-    <row r="12" spans="2:15" ht="4.8" customHeight="1">
-      <c r="B12" s="64"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="46"/>
-    </row>
-    <row r="13" spans="2:15" ht="26.4">
-      <c r="B13" s="64"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="63" t="s">
+      <c r="O11" s="43"/>
+    </row>
+    <row r="12" spans="2:15" ht="4.9000000000000004" customHeight="1">
+      <c r="B12" s="72"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="2:15" ht="25.5">
+      <c r="B13" s="72"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="61" t="s">
+      <c r="G13" s="57"/>
+      <c r="H13" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="45"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="43"/>
     </row>
     <row r="14" spans="2:15" ht="6" customHeight="1">
-      <c r="B14" s="64"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="45"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="43"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B15" s="64"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="61" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="61" t="s">
+      <c r="G15" s="56"/>
+      <c r="H15" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="45"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="43"/>
     </row>
     <row r="16" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B16" s="70"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
@@ -2262,22 +2262,22 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="13.2"/>
-    <row r="26" spans="1:15" ht="13.2"/>
-    <row r="27" spans="1:15" ht="13.2"/>
-    <row r="29" spans="1:15" ht="13.2"/>
-    <row r="30" spans="1:15" ht="13.2"/>
-    <row r="31" spans="1:15" ht="13.2"/>
-    <row r="32" spans="1:15" ht="13.2"/>
-    <row r="34" ht="13.2"/>
-    <row r="35" ht="13.2"/>
-    <row r="36" ht="13.2"/>
-    <row r="37" ht="13.2"/>
-    <row r="39" ht="13.2"/>
-    <row r="40" ht="13.2"/>
-    <row r="41" ht="13.2"/>
-    <row r="42" ht="13.2"/>
-    <row r="44" ht="13.2"/>
+    <row r="25" spans="1:15" ht="12.75"/>
+    <row r="26" spans="1:15" ht="12.75"/>
+    <row r="27" spans="1:15" ht="12.75"/>
+    <row r="29" spans="1:15" ht="12.75"/>
+    <row r="30" spans="1:15" ht="12.75"/>
+    <row r="31" spans="1:15" ht="12.75"/>
+    <row r="32" spans="1:15" ht="12.75"/>
+    <row r="34" ht="12.75"/>
+    <row r="35" ht="12.75"/>
+    <row r="36" ht="12.75"/>
+    <row r="37" ht="12.75"/>
+    <row r="39" ht="12.75"/>
+    <row r="40" ht="12.75"/>
+    <row r="41" ht="12.75"/>
+    <row r="42" ht="12.75"/>
+    <row r="44" ht="12.75"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F5:J5"/>
@@ -2332,14 +2332,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -2353,24 +2353,24 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="2:8" ht="66">
+    <row r="4" spans="2:8" ht="63.75">
       <c r="B4" s="30"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33">
         <f>SUM(F6:F16)</f>
         <v>24</v>
       </c>
@@ -2378,228 +2378,228 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="13.8" thickBot="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+    <row r="5" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="62" t="s">
         <v>75</v>
       </c>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="2:8" ht="39.6" customHeight="1" thickBot="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37">
         <v>1</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="37">
         <v>100</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="37">
         <v>2</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="63" t="s">
         <v>76</v>
       </c>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="2:8" ht="40.200000000000003" thickBot="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="39">
+    <row r="7" spans="2:8" ht="39" thickBot="1">
+      <c r="B7" s="34"/>
+      <c r="C7" s="37">
         <v>2</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="37">
         <v>100</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="37">
         <v>2</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="63" t="s">
         <v>77</v>
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="2:8" ht="27" thickBot="1">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39">
+    <row r="8" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B8" s="34"/>
+      <c r="C8" s="37">
         <v>3</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="37">
         <v>100</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="37">
         <v>4</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="63" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="2:8" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="39">
+    <row r="9" spans="2:8" ht="26.45" customHeight="1" thickBot="1">
+      <c r="B9" s="34"/>
+      <c r="C9" s="37">
         <v>4</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="37">
         <v>100</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="37">
         <v>3</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="63" t="s">
         <v>76</v>
       </c>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="2:8" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B10" s="36"/>
-      <c r="C10" s="39">
+    <row r="10" spans="2:8" ht="26.45" customHeight="1" thickBot="1">
+      <c r="B10" s="34"/>
+      <c r="C10" s="37">
         <v>5</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="37">
         <v>40</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="37">
         <v>1</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="63" t="s">
         <v>79</v>
       </c>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="2:8" ht="27" thickBot="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="39">
+    <row r="11" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B11" s="34"/>
+      <c r="C11" s="37">
         <v>6</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="37">
         <v>40</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="37">
         <v>1</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="63" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="30"/>
     </row>
-    <row r="12" spans="2:8" ht="27" thickBot="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="39">
+    <row r="12" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B12" s="34"/>
+      <c r="C12" s="37">
         <v>7</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="37">
         <v>40</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="37">
         <v>2</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="63" t="s">
         <v>77</v>
       </c>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="2:8" ht="39.6" customHeight="1" thickBot="1">
-      <c r="B13" s="36"/>
-      <c r="C13" s="39">
+      <c r="B13" s="34"/>
+      <c r="C13" s="37">
         <v>8</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="37">
         <v>40</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="37">
         <v>2</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="63" t="s">
         <v>76</v>
       </c>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="2:8" ht="27" thickBot="1">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39">
+    <row r="14" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="37">
         <v>9</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="37">
         <v>20</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="37">
         <v>2</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="63" t="s">
         <v>77</v>
       </c>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="2:8" ht="39.6" customHeight="1" thickBot="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="39">
+      <c r="B15" s="34"/>
+      <c r="C15" s="37">
         <v>10</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="37">
         <v>20</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="37">
         <v>4</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="64" t="s">
         <v>78</v>
       </c>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="2:8" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B16" s="43"/>
-      <c r="C16" s="39">
+    <row r="16" spans="2:8" ht="26.45" customHeight="1" thickBot="1">
+      <c r="B16" s="41"/>
+      <c r="C16" s="37">
         <v>11</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39">
+      <c r="E16" s="37"/>
+      <c r="F16" s="37">
         <v>1</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="65">
         <v>20</v>
       </c>
       <c r="H16" s="30"/>
@@ -2608,7 +2608,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="44"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -2617,7 +2617,7 @@
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="44"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -2626,7 +2626,7 @@
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
-      <c r="E19" s="44"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -2648,18 +2648,18 @@
   </sheetPr>
   <dimension ref="B4:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:14" ht="15.75" customHeight="1">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="10">
         <v>2</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="10">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="18">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="11">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H17" s="17">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H22" s="17">
         <v>0</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="18">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="13.2">
+    <row r="29" spans="2:14" ht="12.75">
       <c r="B29" s="12"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="13.2">
+    <row r="30" spans="2:14" ht="12.75">
       <c r="B30" s="12"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="13.2">
+    <row r="31" spans="2:14" ht="12.75">
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="13.2">
+    <row r="32" spans="2:14" ht="12.75">
       <c r="B32" s="16">
         <v>6</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="18">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="13.2">
+    <row r="33" spans="2:14" ht="12.75">
       <c r="B33" s="12"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="13.2">
+    <row r="34" spans="2:14" ht="12.75">
       <c r="B34" s="12"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="13.2">
+    <row r="35" spans="2:14" ht="12.75">
       <c r="B35" s="12"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="13.2">
+    <row r="36" spans="2:14" ht="12.75">
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="13.2">
+    <row r="37" spans="2:14" ht="12.75">
       <c r="B37" s="16">
         <v>7</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" s="18">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="13.2">
+    <row r="38" spans="2:14" ht="12.75">
       <c r="B38" s="12"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="13.2">
+    <row r="39" spans="2:14" ht="12.75">
       <c r="B39" s="12"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="13.2">
+    <row r="40" spans="2:14" ht="12.75">
       <c r="B40" s="12"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="13.2">
+    <row r="41" spans="2:14" ht="12.75">
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="13.2">
+    <row r="42" spans="2:14" ht="12.75">
       <c r="B42" s="16">
         <v>8</v>
       </c>
@@ -4025,13 +4025,13 @@
         <v>5</v>
       </c>
       <c r="G42" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H42" s="17">
         <v>0</v>
       </c>
       <c r="I42" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="18">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="13.2">
+    <row r="43" spans="2:14" ht="12.75">
       <c r="B43" s="12"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="13.2">
+    <row r="44" spans="2:14" ht="12.75">
       <c r="B44" s="12"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="13.2">
+    <row r="45" spans="2:14" ht="12.75">
       <c r="B45" s="12"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="13.2">
+    <row r="46" spans="2:14" ht="12.75">
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="13.2">
+    <row r="47" spans="2:14" ht="12.75">
       <c r="B47" s="16">
         <v>9</v>
       </c>
@@ -4206,13 +4206,13 @@
         <v>10</v>
       </c>
       <c r="G47" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H47" s="17">
         <v>0</v>
       </c>
       <c r="I47" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J47" s="18">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="13.2">
+    <row r="48" spans="2:14" ht="12.75">
       <c r="B48" s="12"/>
       <c r="C48" s="20"/>
       <c r="D48" s="10"/>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="13.2">
+    <row r="49" spans="2:14" ht="12.75">
       <c r="B49" s="12"/>
       <c r="C49" s="20"/>
       <c r="D49" s="10"/>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="13.2">
+    <row r="50" spans="2:14" ht="12.75">
       <c r="B50" s="12"/>
       <c r="C50" s="20"/>
       <c r="D50" s="10"/>
@@ -4387,7 +4387,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H52" s="17">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H57" s="17">
         <v>0</v>
@@ -4739,39 +4739,39 @@
         <v>18</v>
       </c>
       <c r="F62" s="24">
-        <f>SUM(F7:F61)</f>
+        <f t="shared" ref="F62:N62" si="0">SUM(F7:F61)</f>
         <v>466</v>
       </c>
       <c r="G62" s="24">
-        <f>SUM(G7:G61)</f>
-        <v>88</v>
+        <f>F65-SUM(G7:G61)</f>
+        <v>443</v>
       </c>
       <c r="H62" s="24">
-        <f>SUM(H7:H61)</f>
-        <v>5</v>
+        <f>F62-SUM(H7:H61)</f>
+        <v>458</v>
       </c>
       <c r="I62" s="24">
-        <f>SUM(I7:I61)</f>
-        <v>17</v>
+        <f>F62-SUM(I7:I61)</f>
+        <v>416</v>
       </c>
       <c r="J62" s="24">
-        <f>SUM(J7:J61)</f>
-        <v>6</v>
+        <f>F62-SUM(J7:J61)</f>
+        <v>460</v>
       </c>
       <c r="K62" s="24">
-        <f>SUM(K7:K61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L62" s="24">
-        <f>SUM(L7:L61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M62" s="24">
-        <f>SUM(M7:M61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N62" s="24">
-        <f>SUM(N7:N61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4851,35 +4851,35 @@
         <v>466</v>
       </c>
       <c r="G65" s="10">
-        <f t="shared" ref="G65:J65" si="0">F65-$F66</f>
+        <f t="shared" ref="G65:J65" si="1">F65-$F66</f>
         <v>418.25</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>370.5</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>322.75</v>
       </c>
       <c r="J65" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>275</v>
       </c>
       <c r="K65" s="10">
-        <f t="shared" ref="K65" si="1">J65-$F66</f>
+        <f t="shared" ref="K65" si="2">J65-$F66</f>
         <v>227.25</v>
       </c>
       <c r="L65" s="10">
-        <f t="shared" ref="L65" si="2">K65-$F66</f>
+        <f t="shared" ref="L65" si="3">K65-$F66</f>
         <v>179.5</v>
       </c>
       <c r="M65" s="10">
-        <f t="shared" ref="M65" si="3">L65-$F66</f>
+        <f t="shared" ref="M65" si="4">L65-$F66</f>
         <v>131.75</v>
       </c>
       <c r="N65" s="10">
-        <f t="shared" ref="N65" si="4">M65-$F66</f>
+        <f t="shared" ref="N65" si="5">M65-$F66</f>
         <v>84</v>
       </c>
     </row>

--- a/Gestion de projet/3 Product-Sprint Backlog.xlsx
+++ b/Gestion de projet/3 Product-Sprint Backlog.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\Desktop\ProxiBanque V4\ProxiBanqueV4\Gestion de projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\formationJava\Dossier Git\git clone\ProxiBanqueV4\ProxiBanqueV4\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{302C8A6F-E4B4-4AC4-A05E-9D5A9FEDA946}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="7740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Story Mapping" sheetId="2" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="4" r:id="rId2"/>
     <sheet name="ProxiBanque-SprintBacklog" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -266,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="10"/>
@@ -896,7 +897,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="1"/>
@@ -918,12 +919,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34562546086454321"/>
+          <c:y val="3.8216560509554139E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1314757462782771"/>
+          <c:y val="0.13718708728287946"/>
+          <c:w val="0.51355207318142204"/>
+          <c:h val="0.66639383452864576"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="1"/>
@@ -1023,6 +1041,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-688B-476C-AE50-0782C45621F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1093,21 +1116,26 @@
                   <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>443</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>458</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>416</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>460</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-688B-476C-AE50-0782C45621F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1144,7 +1172,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1200,7 +1227,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1229,7 +1255,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1264,7 +1289,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E754C71-0CF3-42B4-811E-4B97F35CF7AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E754C71-0CF3-42B4-811E-4B97F35CF7AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1343,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9C00902-28F5-463F-969A-21170571A4D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C00902-28F5-463F-969A-21170571A4D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1397,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CBCAB2D-E1DE-4634-8078-F25508B6D03D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBCAB2D-E1DE-4634-8078-F25508B6D03D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1451,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42033142-77C1-492A-9294-58A9E7ABBE6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42033142-77C1-492A-9294-58A9E7ABBE6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1505,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F62A55FC-3CEA-469F-8BDC-114DBB1797E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62A55FC-3CEA-469F-8BDC-114DBB1797E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1559,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E7F96D6-06D9-4ABE-A4D4-A93AF4C479C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7F96D6-06D9-4ABE-A4D4-A93AF4C479C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +1613,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33114709-6B65-4B35-AFFB-836139DCD949}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33114709-6B65-4B35-AFFB-836139DCD949}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,15 +1656,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4848225" cy="2990850"/>
+    <xdr:ext cx="8048625" cy="5543550"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Graphique"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Graphique">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1919,13 +1950,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A4:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -1934,6 +1965,7 @@
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" customWidth="1"/>
     <col min="5" max="5" width="2.140625" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" customWidth="1"/>
     <col min="9" max="9" width="1.85546875" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
   </cols>
@@ -2329,11 +2361,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2595,7 +2627,9 @@
       <c r="D16" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="37">
+        <v>20</v>
+      </c>
       <c r="F16" s="37">
         <v>1</v>
       </c>
@@ -2642,14 +2676,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B4:N70"/>
+  <dimension ref="B4:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2662,7 +2696,7 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="15.75" customHeight="1">
+    <row r="4" spans="2:16" ht="15.75" customHeight="1">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2678,7 +2712,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="2:14" ht="15.75" customHeight="1">
+    <row r="5" spans="2:16" ht="15.75" customHeight="1">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2700,7 +2734,7 @@
       </c>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="2:14" ht="15.75" customHeight="1">
+    <row r="6" spans="2:16" ht="15.75" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2741,7 +2775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" customHeight="1">
+    <row r="7" spans="2:16" ht="15.75" customHeight="1">
       <c r="B7" s="8">
         <v>1</v>
       </c>
@@ -2781,8 +2815,15 @@
       <c r="N7" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O7" s="10">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f>N7+M7+L7+K7+J7+I7+H7+G7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
@@ -2816,8 +2857,15 @@
       <c r="N8" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O8" s="10">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P61" si="0">N8+M8+L8+K8+J8+I8+H8+G8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" customHeight="1">
       <c r="B9" s="12"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -2837,10 +2885,10 @@
         <v>10</v>
       </c>
       <c r="J9" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9" s="10">
         <v>0</v>
@@ -2851,8 +2899,15 @@
       <c r="N9" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O9" s="10">
+        <v>15</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" customHeight="1">
       <c r="B10" s="12"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -2866,28 +2921,35 @@
         <v>0</v>
       </c>
       <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
         <v>2</v>
       </c>
-      <c r="I10" s="10">
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
         <v>2</v>
       </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" customHeight="1">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" customHeight="1">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -2901,28 +2963,35 @@
         <v>0</v>
       </c>
       <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" customHeight="1">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" customHeight="1">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -2939,7 +3008,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="17">
         <v>0</v>
@@ -2962,8 +3031,15 @@
       <c r="N12" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O12" s="17">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" customHeight="1">
       <c r="B13" s="12"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -2997,8 +3073,15 @@
       <c r="N13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O13" s="10">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" customHeight="1">
       <c r="B14" s="12"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -3032,8 +3115,15 @@
       <c r="N14" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O14" s="10">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -3067,8 +3157,15 @@
       <c r="N15" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O15" s="10">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" customHeight="1">
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
@@ -3102,8 +3199,15 @@
       <c r="N16" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O16" s="10">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" customHeight="1">
       <c r="B17" s="16">
         <v>3</v>
       </c>
@@ -3143,8 +3247,15 @@
       <c r="N17" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O17" s="17">
+        <v>30</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" customHeight="1">
       <c r="B18" s="12"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -3178,8 +3289,15 @@
       <c r="N18" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O18" s="10">
+        <v>40</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -3213,8 +3331,15 @@
       <c r="N19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O19" s="10">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="15.75" customHeight="1">
       <c r="B20" s="12"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -3248,8 +3373,15 @@
       <c r="N20" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O20" s="10">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" customHeight="1">
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -3283,8 +3415,15 @@
       <c r="N21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O21" s="10">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" customHeight="1">
       <c r="B22" s="16">
         <v>4</v>
       </c>
@@ -3307,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="18">
         <v>0</v>
@@ -3324,8 +3463,15 @@
       <c r="N22" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O22" s="17">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -3342,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J23" s="11">
         <v>0</v>
@@ -3359,8 +3505,15 @@
       <c r="N23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O23" s="10">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1">
       <c r="B24" s="12"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -3394,8 +3547,15 @@
       <c r="N24" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O24" s="10">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1">
       <c r="B25" s="12"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -3429,8 +3589,15 @@
       <c r="N25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O25" s="10">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" customHeight="1">
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
@@ -3464,8 +3631,15 @@
       <c r="N26" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O26" s="10">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" customHeight="1">
       <c r="B27" s="16">
         <v>5</v>
       </c>
@@ -3505,8 +3679,15 @@
       <c r="N27" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O27" s="17">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" customHeight="1">
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -3523,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" s="11">
         <v>0</v>
@@ -3540,8 +3721,15 @@
       <c r="N28" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" ht="12.75">
+      <c r="O28" s="10">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="12.75">
       <c r="B29" s="12"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -3575,8 +3763,15 @@
       <c r="N29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" ht="12.75">
+      <c r="O29" s="10">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="12.75">
       <c r="B30" s="12"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -3610,8 +3805,15 @@
       <c r="N30" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" ht="12.75">
+      <c r="O30" s="10">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="12.75">
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
@@ -3645,8 +3847,15 @@
       <c r="N31" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" ht="12.75">
+      <c r="O31" s="10">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="12.75">
       <c r="B32" s="16">
         <v>6</v>
       </c>
@@ -3686,8 +3895,15 @@
       <c r="N32" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" ht="12.75">
+      <c r="O32" s="17">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="12.75">
       <c r="B33" s="12"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -3704,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33" s="11">
         <v>0</v>
@@ -3721,8 +3937,15 @@
       <c r="N33" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" ht="12.75">
+      <c r="O33" s="10">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="12.75">
       <c r="B34" s="12"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -3756,8 +3979,15 @@
       <c r="N34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="12.75">
+      <c r="O34" s="10">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="12.75">
       <c r="B35" s="12"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -3791,8 +4021,15 @@
       <c r="N35" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" ht="12.75">
+      <c r="O35" s="10">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="12.75">
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
@@ -3826,8 +4063,15 @@
       <c r="N36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" ht="12.75">
+      <c r="O36" s="10">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="12.75">
       <c r="B37" s="16">
         <v>7</v>
       </c>
@@ -3867,8 +4111,15 @@
       <c r="N37" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" ht="12.75">
+      <c r="O37" s="17">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="12.75">
       <c r="B38" s="12"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -3885,10 +4136,10 @@
         <v>0</v>
       </c>
       <c r="I38" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K38" s="10">
         <v>0</v>
@@ -3902,8 +4153,15 @@
       <c r="N38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" ht="12.75">
+      <c r="O38" s="10">
+        <v>10</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="12.75">
       <c r="B39" s="12"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -3937,8 +4195,15 @@
       <c r="N39" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" ht="12.75">
+      <c r="O39" s="10">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="12.75">
       <c r="B40" s="12"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -3972,8 +4237,15 @@
       <c r="N40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" ht="12.75">
+      <c r="O40" s="10">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="12.75">
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
@@ -4007,8 +4279,15 @@
       <c r="N41" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" ht="12.75">
+      <c r="O41" s="10">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="12.75">
       <c r="B42" s="16">
         <v>8</v>
       </c>
@@ -4031,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J42" s="18">
         <v>0</v>
@@ -4048,8 +4327,15 @@
       <c r="N42" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" ht="12.75">
+      <c r="O42" s="17">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="12.75">
       <c r="B43" s="12"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -4069,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K43" s="10">
         <v>0</v>
@@ -4083,8 +4369,15 @@
       <c r="N43" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" ht="12.75">
+      <c r="O43" s="10">
+        <v>20</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="12.75">
       <c r="B44" s="12"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -4118,8 +4411,15 @@
       <c r="N44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" ht="12.75">
+      <c r="O44" s="10">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="12.75">
       <c r="B45" s="12"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -4153,8 +4453,15 @@
       <c r="N45" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" ht="12.75">
+      <c r="O45" s="10">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="12.75">
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
@@ -4188,8 +4495,15 @@
       <c r="N46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" ht="12.75">
+      <c r="O46" s="10">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="12.75">
       <c r="B47" s="16">
         <v>9</v>
       </c>
@@ -4229,8 +4543,15 @@
       <c r="N47" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" ht="12.75">
+      <c r="O47" s="17">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="12.75">
       <c r="B48" s="12"/>
       <c r="C48" s="20"/>
       <c r="D48" s="10"/>
@@ -4264,8 +4585,15 @@
       <c r="N48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" ht="12.75">
+      <c r="O48" s="10">
+        <v>15</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="12.75">
       <c r="B49" s="12"/>
       <c r="C49" s="20"/>
       <c r="D49" s="10"/>
@@ -4299,8 +4627,15 @@
       <c r="N49" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" ht="12.75">
+      <c r="O49" s="10">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="12.75">
       <c r="B50" s="12"/>
       <c r="C50" s="20"/>
       <c r="D50" s="10"/>
@@ -4334,8 +4669,15 @@
       <c r="N50" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O50" s="10">
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="15.75" customHeight="1">
       <c r="B51" s="13"/>
       <c r="C51" s="21"/>
       <c r="D51" s="15"/>
@@ -4369,8 +4711,15 @@
       <c r="N51" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O51" s="15">
+        <v>5</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" ht="15.75" customHeight="1">
       <c r="B52" s="16">
         <v>10</v>
       </c>
@@ -4410,8 +4759,15 @@
       <c r="N52" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O52" s="17">
+        <v>10</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" ht="15.75" customHeight="1">
       <c r="B53" s="12"/>
       <c r="C53" s="20"/>
       <c r="D53" s="10"/>
@@ -4445,8 +4801,15 @@
       <c r="N53" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O53" s="10">
+        <v>40</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="15.75" customHeight="1">
       <c r="B54" s="12"/>
       <c r="C54" s="20"/>
       <c r="D54" s="10"/>
@@ -4480,8 +4843,15 @@
       <c r="N54" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O54" s="10">
+        <v>20</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="15.75" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="20"/>
       <c r="D55" s="10"/>
@@ -4515,8 +4885,15 @@
       <c r="N55" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O55" s="10">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" ht="15.75" customHeight="1">
       <c r="B56" s="13"/>
       <c r="C56" s="21"/>
       <c r="D56" s="15"/>
@@ -4550,8 +4927,15 @@
       <c r="N56" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O56" s="15">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="15.75" customHeight="1">
       <c r="B57" s="16">
         <v>11</v>
       </c>
@@ -4591,8 +4975,15 @@
       <c r="N57" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O57" s="17">
+        <v>10</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" ht="15.75" customHeight="1">
       <c r="B58" s="12"/>
       <c r="C58" s="20"/>
       <c r="D58" s="10"/>
@@ -4626,8 +5017,15 @@
       <c r="N58" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O58" s="10">
+        <v>15</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" ht="15.75" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="20"/>
       <c r="D59" s="10"/>
@@ -4661,8 +5059,15 @@
       <c r="N59" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O59" s="10">
+        <v>5</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="15.75" customHeight="1">
       <c r="B60" s="12"/>
       <c r="C60" s="20"/>
       <c r="D60" s="10"/>
@@ -4696,8 +5101,15 @@
       <c r="N60" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O60" s="10">
+        <v>5</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" ht="15.75" customHeight="1">
       <c r="B61" s="13"/>
       <c r="C61" s="21"/>
       <c r="D61" s="15"/>
@@ -4731,51 +5143,58 @@
       <c r="N61" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" ht="15.75" customHeight="1">
+      <c r="O61" s="15">
+        <v>5</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" ht="15.75" customHeight="1">
       <c r="C62" s="20"/>
       <c r="D62" s="3"/>
       <c r="E62" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="24">
-        <f t="shared" ref="F62:N62" si="0">SUM(F7:F61)</f>
+        <f t="shared" ref="F62:N62" si="1">SUM(F7:F61)</f>
         <v>466</v>
       </c>
       <c r="G62" s="24">
         <f>F65-SUM(G7:G61)</f>
+        <v>448</v>
+      </c>
+      <c r="H62" s="24">
+        <f>G62-SUM(H7:H61)</f>
         <v>443</v>
       </c>
-      <c r="H62" s="24">
-        <f>F62-SUM(H7:H61)</f>
-        <v>458</v>
-      </c>
       <c r="I62" s="24">
-        <f>F62-SUM(I7:I61)</f>
-        <v>416</v>
+        <f>H62-SUM(I7:I61)</f>
+        <v>362</v>
       </c>
       <c r="J62" s="24">
-        <f>F62-SUM(J7:J61)</f>
-        <v>460</v>
+        <f>I62-SUM(J7:J61)</f>
+        <v>337</v>
       </c>
       <c r="K62" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="L62" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M62" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N62" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" ht="15.75" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" ht="15.75" customHeight="1">
       <c r="C63" s="20"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4807,7 +5226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="2:14" ht="15.75" customHeight="1">
+    <row r="64" spans="2:16" ht="15.75" customHeight="1">
       <c r="C64" s="20"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4851,35 +5270,35 @@
         <v>466</v>
       </c>
       <c r="G65" s="10">
-        <f t="shared" ref="G65:J65" si="1">F65-$F66</f>
+        <f t="shared" ref="G65:J65" si="2">F65-$F66</f>
         <v>418.25</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>370.5</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>322.75</v>
       </c>
       <c r="J65" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="K65" s="10">
-        <f t="shared" ref="K65" si="2">J65-$F66</f>
+        <f t="shared" ref="K65" si="3">J65-$F66</f>
         <v>227.25</v>
       </c>
       <c r="L65" s="10">
-        <f t="shared" ref="L65" si="3">K65-$F66</f>
+        <f t="shared" ref="L65" si="4">K65-$F66</f>
         <v>179.5</v>
       </c>
       <c r="M65" s="10">
-        <f t="shared" ref="M65" si="4">L65-$F66</f>
+        <f t="shared" ref="M65" si="5">L65-$F66</f>
         <v>131.75</v>
       </c>
       <c r="N65" s="10">
-        <f t="shared" ref="N65" si="5">M65-$F66</f>
+        <f t="shared" ref="N65" si="6">M65-$F66</f>
         <v>84</v>
       </c>
     </row>
@@ -4929,7 +5348,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C62:C64">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="formula" val="20"/>
         <cfvo type="max"/>
@@ -4939,6 +5358,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:J66 D7:D11 F7:J11 E17 F17:J26 D17:D26 D37:D46 F57:J62 D57:D61 F37:J46">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:J16 E12 D12:D16">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D36 F27:J36">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:J51 D47:D51">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:J56 D52:D56">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4950,7 +5417,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:J16 E12 D12:D16">
+  <conditionalFormatting sqref="K65:N66 K7:N11 K17:N26 K37:N46 K57:N62">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:N16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4962,7 +5441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D36 F27:J36">
+  <conditionalFormatting sqref="K27:N36">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4974,7 +5453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:J51 D47:D51">
+  <conditionalFormatting sqref="K47:N51">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4986,7 +5465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52:J56 D52:D56">
+  <conditionalFormatting sqref="K52:N56">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4998,7 +5477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:N66 K7:N11 K17:N26 K37:N46 K57:N62">
+  <conditionalFormatting sqref="O7:O11 O17:O26 O57:O61 O37:O46">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5010,7 +5489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:N16">
+  <conditionalFormatting sqref="O12:O16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5022,7 +5501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:N36">
+  <conditionalFormatting sqref="O27:O36">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5034,7 +5513,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:N51">
+  <conditionalFormatting sqref="O47:O51">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5046,7 +5525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:N56">
+  <conditionalFormatting sqref="O52:O56">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Gestion de projet/3 Product-Sprint Backlog.xlsx
+++ b/Gestion de projet/3 Product-Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\formationJava\Dossier Git\git clone\ProxiBanqueV4\ProxiBanqueV4\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{302C8A6F-E4B4-4AC4-A05E-9D5A9FEDA946}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7301734F-94F8-4E92-8882-E96216F9B32C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="7740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17925" windowHeight="7740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Story Mapping" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
   <si>
     <t>Authentification Conseiller</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Trajectoire</t>
   </si>
   <si>
-    <t>J1matin</t>
-  </si>
-  <si>
     <t>J1aprème</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>&lt;- Estimée par l'équipe de développement</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>Fonctionnalités Gérant</t>
   </si>
   <si>
-    <t>Connexion/sécurité</t>
-  </si>
-  <si>
     <t>Gestion Clients</t>
   </si>
   <si>
@@ -228,15 +219,9 @@
     <t>Afficher la liste des conseillers</t>
   </si>
   <si>
-    <t>alerte découverts</t>
-  </si>
-  <si>
     <t>Créer un compte</t>
   </si>
   <si>
-    <t>historique des transactions</t>
-  </si>
-  <si>
     <t>Supprimer un client</t>
   </si>
   <si>
@@ -262,6 +247,18 @@
   </si>
   <si>
     <t> 13</t>
+  </si>
+  <si>
+    <t>Afficher historique des transactions</t>
+  </si>
+  <si>
+    <t>alerte comptes découvert</t>
+  </si>
+  <si>
+    <t>Connexion /  sécurité</t>
+  </si>
+  <si>
+    <t>Priorité</t>
   </si>
 </sst>
 </file>
@@ -438,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -543,19 +540,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -792,31 +776,28 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,7 +818,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,39 +830,37 @@
     <xf numFmtId="0" fontId="15" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,7 +896,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Burndown chart - Sprint #1</a:t>
+              <a:t>Burndown chart </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -970,72 +952,67 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'ProxiBanque-SprintBacklog'!$F$64:$N$64</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
+            <c:numRef>
+              <c:f>'ProxiBanque-SprintBacklog'!$F$64:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v> </c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ProxiBanque-SprintBacklog'!$F$65:$N$65</c:f>
+              <c:f>'ProxiBanque-SprintBacklog'!$F$65:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>466</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>418.25</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>370.5</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322.75</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>227.25</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179.5</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,60 +1049,67 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'ProxiBanque-SprintBacklog'!$F$64:$N$64</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
+            <c:numRef>
+              <c:f>'ProxiBanque-SprintBacklog'!$F$64:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v> </c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ProxiBanque-SprintBacklog'!$F$62:$J$62</c:f>
+              <c:f>'ProxiBanque-SprintBacklog'!$F$62:$M$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>466</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>448</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>443</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>362</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>337</c:v>
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,10 +1640,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>653498</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8048625" cy="5543550"/>
     <xdr:graphicFrame macro="">
@@ -1956,8 +1940,8 @@
   </sheetPr>
   <dimension ref="A4:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1968,6 +1952,7 @@
     <col min="7" max="7" width="2.140625" customWidth="1"/>
     <col min="9" max="9" width="1.85546875" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:15" ht="15.75" customHeight="1">
@@ -1990,34 +1975,34 @@
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
       <c r="D5" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
       <c r="O5" s="43"/>
     </row>
     <row r="6" spans="2:15" ht="5.45" customHeight="1">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
       <c r="M6" s="44"/>
@@ -2027,41 +2012,41 @@
     <row r="7" spans="2:15" ht="25.5">
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50" t="s">
+      <c r="K7" s="43"/>
+      <c r="L7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50" t="s">
+      <c r="M7" s="43"/>
+      <c r="N7" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="O7" s="43"/>
     </row>
     <row r="8" spans="2:15" ht="4.1500000000000004" customHeight="1">
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
       <c r="M8" s="44"/>
@@ -2069,157 +2054,157 @@
       <c r="O8" s="44"/>
     </row>
     <row r="9" spans="2:15" ht="38.25">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53" t="s">
+      <c r="M9" s="53"/>
+      <c r="N9" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="43"/>
+    </row>
+    <row r="10" spans="2:15" ht="6" customHeight="1">
+      <c r="B10" s="70"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="44"/>
+    </row>
+    <row r="11" spans="2:15" ht="38.25">
+      <c r="B11" s="70"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="51" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="43"/>
+    </row>
+    <row r="12" spans="2:15" ht="4.9000000000000004" customHeight="1">
+      <c r="B12" s="70"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="2:15" ht="25.5">
+      <c r="B13" s="70"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="51" t="s">
+      <c r="G13" s="56"/>
+      <c r="H13" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55" t="s">
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="43"/>
+    </row>
+    <row r="14" spans="2:15" ht="6" customHeight="1">
+      <c r="B14" s="70"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="43"/>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B15" s="70"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="43"/>
-    </row>
-    <row r="10" spans="2:15" ht="6" customHeight="1">
-      <c r="B10" s="72"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="44"/>
-    </row>
-    <row r="11" spans="2:15" ht="25.5">
-      <c r="B11" s="72"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="51" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="43"/>
-    </row>
-    <row r="12" spans="2:15" ht="4.9000000000000004" customHeight="1">
-      <c r="B12" s="72"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="44"/>
-    </row>
-    <row r="13" spans="2:15" ht="25.5">
-      <c r="B13" s="72"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="43"/>
-    </row>
-    <row r="14" spans="2:15" ht="6" customHeight="1">
-      <c r="B14" s="72"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="43"/>
-    </row>
-    <row r="15" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B15" s="72"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="43"/>
     </row>
     <row r="16" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B16" s="73"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="44"/>
       <c r="N16" s="44"/>
       <c r="O16" s="44"/>
@@ -2364,13 +2349,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2385,19 +2371,19 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="30"/>
-      <c r="C3" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="C3" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="63.75">
       <c r="B4" s="30"/>
       <c r="C4" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -2407,25 +2393,25 @@
         <v>24</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="13.5" thickBot="1">
       <c r="B5" s="34"/>
       <c r="C5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="F5" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>75</v>
+      <c r="G5" s="61" t="s">
+        <v>70</v>
       </c>
       <c r="H5" s="30"/>
     </row>
@@ -2435,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="37">
         <v>100</v>
@@ -2443,8 +2429,8 @@
       <c r="F6" s="37">
         <v>2</v>
       </c>
-      <c r="G6" s="63" t="s">
-        <v>76</v>
+      <c r="G6" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="H6" s="30"/>
     </row>
@@ -2454,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="37">
         <v>100</v>
@@ -2462,8 +2448,8 @@
       <c r="F7" s="37">
         <v>2</v>
       </c>
-      <c r="G7" s="63" t="s">
-        <v>77</v>
+      <c r="G7" s="62" t="s">
+        <v>72</v>
       </c>
       <c r="H7" s="30"/>
     </row>
@@ -2473,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="37">
         <v>100</v>
@@ -2481,8 +2467,8 @@
       <c r="F8" s="37">
         <v>4</v>
       </c>
-      <c r="G8" s="63" t="s">
-        <v>78</v>
+      <c r="G8" s="62" t="s">
+        <v>73</v>
       </c>
       <c r="H8" s="30"/>
     </row>
@@ -2492,7 +2478,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="37">
         <v>100</v>
@@ -2500,8 +2486,8 @@
       <c r="F9" s="37">
         <v>3</v>
       </c>
-      <c r="G9" s="63" t="s">
-        <v>76</v>
+      <c r="G9" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="H9" s="30"/>
     </row>
@@ -2511,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="37">
         <v>40</v>
@@ -2519,8 +2505,8 @@
       <c r="F10" s="37">
         <v>1</v>
       </c>
-      <c r="G10" s="63" t="s">
-        <v>79</v>
+      <c r="G10" s="62" t="s">
+        <v>74</v>
       </c>
       <c r="H10" s="30"/>
     </row>
@@ -2530,7 +2516,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="37">
         <v>40</v>
@@ -2538,8 +2524,8 @@
       <c r="F11" s="37">
         <v>1</v>
       </c>
-      <c r="G11" s="63" t="s">
-        <v>79</v>
+      <c r="G11" s="62" t="s">
+        <v>74</v>
       </c>
       <c r="H11" s="30"/>
     </row>
@@ -2549,7 +2535,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="37">
         <v>40</v>
@@ -2557,8 +2543,8 @@
       <c r="F12" s="37">
         <v>2</v>
       </c>
-      <c r="G12" s="63" t="s">
-        <v>77</v>
+      <c r="G12" s="62" t="s">
+        <v>72</v>
       </c>
       <c r="H12" s="30"/>
     </row>
@@ -2568,7 +2554,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="37">
         <v>40</v>
@@ -2576,8 +2562,8 @@
       <c r="F13" s="37">
         <v>2</v>
       </c>
-      <c r="G13" s="63" t="s">
-        <v>76</v>
+      <c r="G13" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="30"/>
     </row>
@@ -2587,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="37">
         <v>20</v>
@@ -2595,8 +2581,8 @@
       <c r="F14" s="37">
         <v>2</v>
       </c>
-      <c r="G14" s="63" t="s">
-        <v>77</v>
+      <c r="G14" s="62" t="s">
+        <v>72</v>
       </c>
       <c r="H14" s="30"/>
     </row>
@@ -2606,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="37">
         <v>20</v>
@@ -2614,8 +2600,8 @@
       <c r="F15" s="37">
         <v>4</v>
       </c>
-      <c r="G15" s="64" t="s">
-        <v>78</v>
+      <c r="G15" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="H15" s="30"/>
     </row>
@@ -2625,7 +2611,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="37">
         <v>20</v>
@@ -2633,7 +2619,7 @@
       <c r="F16" s="37">
         <v>1</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="64">
         <v>20</v>
       </c>
       <c r="H16" s="30"/>
@@ -2680,10 +2666,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B4:P70"/>
+  <dimension ref="B4:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2696,7 +2682,7 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" ht="15.75" customHeight="1">
+    <row r="4" spans="2:15" ht="15.75" customHeight="1">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2710,9 +2696,8 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-    </row>
-    <row r="5" spans="2:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="2:15" ht="15.75" customHeight="1">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2720,21 +2705,20 @@
       <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="7" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="2:16" ht="15.75" customHeight="1">
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2750,32 +2734,29 @@
       <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="2:15" ht="15.75" customHeight="1">
       <c r="B7" s="8">
         <v>1</v>
       </c>
@@ -2795,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -2812,18 +2793,15 @@
       <c r="M7" s="10">
         <v>0</v>
       </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <f>N7+M7+L7+K7+J7+I7+H7+G7</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="15.75" customHeight="1">
+      <c r="N7" s="10">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f>M7+L7+K7+J7+I7+H7+G7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
@@ -2854,18 +2832,15 @@
       <c r="M8" s="10">
         <v>0</v>
       </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="N8" s="10">
         <v>20</v>
       </c>
-      <c r="P8">
-        <f t="shared" ref="P8:P61" si="0">N8+M8+L8+K8+J8+I8+H8+G8</f>
+      <c r="O8">
+        <f t="shared" ref="O8:O61" si="0">M8+L8+K8+J8+I8+H8+G8</f>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" customHeight="1">
+    <row r="9" spans="2:15" ht="15.75" customHeight="1">
       <c r="B9" s="12"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -2882,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9" s="10">
         <v>5</v>
@@ -2896,18 +2871,15 @@
       <c r="M9" s="10">
         <v>0</v>
       </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="N9" s="10">
         <v>15</v>
       </c>
-      <c r="P9">
+      <c r="O9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" customHeight="1">
+    <row r="10" spans="2:15" ht="15.75" customHeight="1">
       <c r="B10" s="12"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -2938,18 +2910,15 @@
       <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <v>2</v>
-      </c>
-      <c r="P10">
+      <c r="N10" s="10">
+        <v>2</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" customHeight="1">
+    <row r="11" spans="2:15" ht="15.75" customHeight="1">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -2980,23 +2949,20 @@
       <c r="M11" s="10">
         <v>0</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
+      <c r="N11" s="10">
         <v>1</v>
       </c>
-      <c r="P11">
+      <c r="O11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15.75" customHeight="1">
+    <row r="12" spans="2:15" ht="15.75" customHeight="1">
       <c r="B12" s="16">
         <v>2</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="17">
         <v>40</v>
@@ -3028,18 +2994,15 @@
       <c r="M12" s="17">
         <v>0</v>
       </c>
-      <c r="N12" s="18">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
-        <v>5</v>
-      </c>
-      <c r="P12">
+      <c r="N12" s="17">
+        <v>5</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15.75" customHeight="1">
+    <row r="13" spans="2:15" ht="15.75" customHeight="1">
       <c r="B13" s="12"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -3070,18 +3033,15 @@
       <c r="M13" s="10">
         <v>0</v>
       </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
+      <c r="N13" s="10">
         <v>10</v>
       </c>
-      <c r="P13">
+      <c r="O13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15.75" customHeight="1">
+    <row r="14" spans="2:15" ht="15.75" customHeight="1">
       <c r="B14" s="12"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -3101,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
@@ -3112,18 +3072,15 @@
       <c r="M14" s="10">
         <v>0</v>
       </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
+      <c r="N14" s="10">
         <v>10</v>
       </c>
-      <c r="P14">
+      <c r="O14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -3143,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K15" s="10">
         <v>0</v>
@@ -3154,18 +3111,15 @@
       <c r="M15" s="10">
         <v>0</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
+      <c r="N15" s="10">
         <v>10</v>
       </c>
-      <c r="P15">
+      <c r="O15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" customHeight="1">
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
@@ -3182,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16" s="10">
         <v>0</v>
@@ -3196,18 +3150,15 @@
       <c r="M16" s="10">
         <v>0</v>
       </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10">
-        <v>5</v>
-      </c>
-      <c r="P16">
+      <c r="N16" s="10">
+        <v>5</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1">
+    <row r="17" spans="2:15" ht="15.75" customHeight="1">
       <c r="B17" s="16">
         <v>3</v>
       </c>
@@ -3215,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="17">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G17" s="18">
         <v>0</v>
@@ -3242,20 +3193,17 @@
         <v>0</v>
       </c>
       <c r="M17" s="17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="18">
-        <v>0</v>
-      </c>
-      <c r="O17" s="17">
-        <v>30</v>
-      </c>
-      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="N17" s="17">
+        <v>5</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" customHeight="1">
       <c r="B18" s="12"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -3263,7 +3211,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="10">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
@@ -3284,20 +3232,17 @@
         <v>0</v>
       </c>
       <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>40</v>
-      </c>
-      <c r="P18">
+        <v>20</v>
+      </c>
+      <c r="N18" s="10">
+        <v>20</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -3326,20 +3271,17 @@
         <v>0</v>
       </c>
       <c r="M19" s="10">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
-        <v>5</v>
-      </c>
-      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="N19" s="10">
+        <v>5</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" customHeight="1">
       <c r="B20" s="12"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -3347,7 +3289,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
@@ -3368,20 +3310,17 @@
         <v>0</v>
       </c>
       <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10">
-        <v>20</v>
-      </c>
-      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="N20" s="10">
+        <v>5</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="15.75" customHeight="1">
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -3410,25 +3349,22 @@
         <v>0</v>
       </c>
       <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10">
-        <v>5</v>
-      </c>
-      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="N21" s="10">
+        <v>5</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" customHeight="1">
       <c r="B22" s="16">
         <v>4</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="10">
         <v>40</v>
@@ -3460,18 +3396,15 @@
       <c r="M22" s="17">
         <v>0</v>
       </c>
-      <c r="N22" s="18">
-        <v>0</v>
-      </c>
-      <c r="O22" s="17">
-        <v>5</v>
-      </c>
-      <c r="P22">
+      <c r="N22" s="17">
+        <v>5</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="15.75" customHeight="1">
+    <row r="23" spans="2:15" ht="15.75" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -3497,23 +3430,20 @@
         <v>0</v>
       </c>
       <c r="L23" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M23" s="10">
         <v>0</v>
       </c>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10">
+      <c r="N23" s="10">
         <v>20</v>
       </c>
-      <c r="P23">
+      <c r="O23">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" customHeight="1">
       <c r="B24" s="12"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -3542,20 +3472,17 @@
         <v>0</v>
       </c>
       <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <v>0</v>
-      </c>
-      <c r="O24" s="10">
-        <v>5</v>
-      </c>
-      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="N24" s="10">
+        <v>5</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" customHeight="1">
       <c r="B25" s="12"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -3584,20 +3511,17 @@
         <v>0</v>
       </c>
       <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="O25" s="10">
-        <v>5</v>
-      </c>
-      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="N25" s="10">
+        <v>5</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" customHeight="1">
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
@@ -3626,25 +3550,22 @@
         <v>0</v>
       </c>
       <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11">
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <v>5</v>
-      </c>
-      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="N26" s="10">
+        <v>5</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" customHeight="1">
       <c r="B27" s="16">
         <v>5</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="10">
         <v>13</v>
@@ -3662,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="18">
         <v>0</v>
@@ -3676,18 +3597,15 @@
       <c r="M27" s="17">
         <v>0</v>
       </c>
-      <c r="N27" s="18">
-        <v>0</v>
-      </c>
-      <c r="O27" s="17">
-        <v>2</v>
-      </c>
-      <c r="P27">
+      <c r="N27" s="17">
+        <v>2</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" customHeight="1">
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -3704,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J28" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K28" s="10">
         <v>0</v>
@@ -3718,18 +3636,15 @@
       <c r="M28" s="10">
         <v>0</v>
       </c>
-      <c r="N28" s="11">
-        <v>0</v>
-      </c>
-      <c r="O28" s="10">
-        <v>5</v>
-      </c>
-      <c r="P28">
+      <c r="N28" s="10">
+        <v>5</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="12.75">
+    <row r="29" spans="2:15" ht="12.75">
       <c r="B29" s="12"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -3752,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="10">
         <v>0</v>
@@ -3760,18 +3675,15 @@
       <c r="M29" s="10">
         <v>0</v>
       </c>
-      <c r="N29" s="11">
-        <v>0</v>
-      </c>
-      <c r="O29" s="10">
-        <v>2</v>
-      </c>
-      <c r="P29">
+      <c r="N29" s="10">
+        <v>2</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="12.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="12.75">
       <c r="B30" s="12"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -3794,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" s="10">
         <v>0</v>
@@ -3802,18 +3714,15 @@
       <c r="M30" s="10">
         <v>0</v>
       </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-      <c r="O30" s="10">
-        <v>2</v>
-      </c>
-      <c r="P30">
+      <c r="N30" s="10">
+        <v>2</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="12.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="12.75">
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
@@ -3836,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" s="10">
         <v>0</v>
@@ -3844,23 +3753,20 @@
       <c r="M31" s="10">
         <v>0</v>
       </c>
-      <c r="N31" s="11">
-        <v>0</v>
-      </c>
-      <c r="O31" s="10">
-        <v>2</v>
-      </c>
-      <c r="P31">
+      <c r="N31" s="10">
+        <v>2</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="12.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="12.75">
       <c r="B32" s="16">
         <v>6</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="10">
         <v>13</v>
@@ -3872,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="17">
         <v>0</v>
@@ -3892,18 +3798,15 @@
       <c r="M32" s="17">
         <v>0</v>
       </c>
-      <c r="N32" s="18">
-        <v>0</v>
-      </c>
-      <c r="O32" s="17">
-        <v>2</v>
-      </c>
-      <c r="P32">
+      <c r="N32" s="17">
+        <v>2</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="12.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="12.75">
       <c r="B33" s="12"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -3934,18 +3837,15 @@
       <c r="M33" s="10">
         <v>0</v>
       </c>
-      <c r="N33" s="11">
-        <v>0</v>
-      </c>
-      <c r="O33" s="10">
-        <v>5</v>
-      </c>
-      <c r="P33">
+      <c r="N33" s="10">
+        <v>5</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="12.75">
+    <row r="34" spans="2:15" ht="12.75">
       <c r="B34" s="12"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -3962,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="11">
         <v>0</v>
@@ -3976,18 +3876,15 @@
       <c r="M34" s="10">
         <v>0</v>
       </c>
-      <c r="N34" s="11">
-        <v>0</v>
-      </c>
-      <c r="O34" s="10">
-        <v>2</v>
-      </c>
-      <c r="P34">
+      <c r="N34" s="10">
+        <v>2</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="12.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="12.75">
       <c r="B35" s="12"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -4004,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="11">
         <v>0</v>
@@ -4018,18 +3915,15 @@
       <c r="M35" s="10">
         <v>0</v>
       </c>
-      <c r="N35" s="11">
-        <v>0</v>
-      </c>
-      <c r="O35" s="10">
-        <v>2</v>
-      </c>
-      <c r="P35">
+      <c r="N35" s="10">
+        <v>2</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" ht="12.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="12.75">
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
@@ -4046,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="11">
         <v>0</v>
@@ -4060,23 +3954,20 @@
       <c r="M36" s="10">
         <v>0</v>
       </c>
-      <c r="N36" s="11">
-        <v>0</v>
-      </c>
-      <c r="O36" s="10">
-        <v>2</v>
-      </c>
-      <c r="P36">
+      <c r="N36" s="10">
+        <v>2</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" ht="12.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="12.75">
       <c r="B37" s="16">
         <v>7</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="10">
         <v>20</v>
@@ -4088,7 +3979,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="17">
         <v>0</v>
@@ -4108,18 +3999,15 @@
       <c r="M37" s="17">
         <v>0</v>
       </c>
-      <c r="N37" s="18">
-        <v>0</v>
-      </c>
-      <c r="O37" s="17">
-        <v>2</v>
-      </c>
-      <c r="P37">
+      <c r="N37" s="17">
+        <v>2</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" ht="12.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="12.75">
       <c r="B38" s="12"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -4150,18 +4038,15 @@
       <c r="M38" s="10">
         <v>0</v>
       </c>
-      <c r="N38" s="11">
-        <v>0</v>
-      </c>
-      <c r="O38" s="10">
+      <c r="N38" s="10">
         <v>10</v>
       </c>
-      <c r="P38">
+      <c r="O38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="12.75">
+    <row r="39" spans="2:15" ht="12.75">
       <c r="B39" s="12"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -4181,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K39" s="10">
         <v>0</v>
@@ -4192,18 +4077,15 @@
       <c r="M39" s="10">
         <v>0</v>
       </c>
-      <c r="N39" s="11">
-        <v>0</v>
-      </c>
-      <c r="O39" s="10">
-        <v>5</v>
-      </c>
-      <c r="P39">
+      <c r="N39" s="10">
+        <v>5</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="12.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="12.75">
       <c r="B40" s="12"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -4223,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" s="10">
         <v>0</v>
@@ -4234,18 +4116,15 @@
       <c r="M40" s="10">
         <v>0</v>
       </c>
-      <c r="N40" s="11">
-        <v>0</v>
-      </c>
-      <c r="O40" s="10">
-        <v>2</v>
-      </c>
-      <c r="P40">
+      <c r="N40" s="10">
+        <v>2</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" ht="12.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="12.75">
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
@@ -4265,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="10">
         <v>0</v>
@@ -4276,23 +4155,20 @@
       <c r="M41" s="10">
         <v>0</v>
       </c>
-      <c r="N41" s="11">
-        <v>0</v>
-      </c>
-      <c r="O41" s="10">
+      <c r="N41" s="10">
         <v>1</v>
       </c>
-      <c r="P41">
+      <c r="O41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="12.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="12.75">
       <c r="B42" s="16">
         <v>8</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="10">
         <v>40</v>
@@ -4304,13 +4180,13 @@
         <v>5</v>
       </c>
       <c r="G42" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I42" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J42" s="18">
         <v>0</v>
@@ -4324,18 +4200,15 @@
       <c r="M42" s="17">
         <v>0</v>
       </c>
-      <c r="N42" s="18">
-        <v>0</v>
-      </c>
-      <c r="O42" s="17">
-        <v>5</v>
-      </c>
-      <c r="P42">
+      <c r="N42" s="17">
+        <v>5</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" ht="12.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="12.75">
       <c r="B43" s="12"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -4349,35 +4222,32 @@
         <v>0</v>
       </c>
       <c r="H43" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I43" s="10">
         <v>0</v>
       </c>
       <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
         <v>20</v>
       </c>
-      <c r="K43" s="10">
-        <v>0</v>
-      </c>
-      <c r="L43" s="10">
-        <v>0</v>
-      </c>
-      <c r="M43" s="10">
-        <v>0</v>
-      </c>
-      <c r="N43" s="11">
-        <v>0</v>
-      </c>
-      <c r="O43" s="10">
-        <v>20</v>
-      </c>
-      <c r="P43">
+      <c r="O43">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="12.75">
+    <row r="44" spans="2:15" ht="12.75">
       <c r="B44" s="12"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -4408,18 +4278,15 @@
       <c r="M44" s="10">
         <v>0</v>
       </c>
-      <c r="N44" s="11">
-        <v>0</v>
-      </c>
-      <c r="O44" s="10">
-        <v>5</v>
-      </c>
-      <c r="P44">
+      <c r="N44" s="10">
+        <v>5</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="12.75">
+    <row r="45" spans="2:15" ht="12.75">
       <c r="B45" s="12"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -4450,18 +4317,15 @@
       <c r="M45" s="10">
         <v>0</v>
       </c>
-      <c r="N45" s="11">
-        <v>0</v>
-      </c>
-      <c r="O45" s="10">
-        <v>5</v>
-      </c>
-      <c r="P45">
+      <c r="N45" s="10">
+        <v>5</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="12.75">
+    <row r="46" spans="2:15" ht="12.75">
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
@@ -4492,23 +4356,20 @@
       <c r="M46" s="10">
         <v>0</v>
       </c>
-      <c r="N46" s="11">
-        <v>0</v>
-      </c>
-      <c r="O46" s="10">
-        <v>5</v>
-      </c>
-      <c r="P46">
+      <c r="N46" s="10">
+        <v>5</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="12.75">
+    <row r="47" spans="2:15" ht="12.75">
       <c r="B47" s="16">
         <v>9</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="10">
         <v>20</v>
@@ -4517,7 +4378,7 @@
         <v>12</v>
       </c>
       <c r="F47" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G47" s="17">
         <v>0</v>
@@ -4540,18 +4401,15 @@
       <c r="M47" s="17">
         <v>0</v>
       </c>
-      <c r="N47" s="18">
-        <v>0</v>
-      </c>
-      <c r="O47" s="17">
-        <v>10</v>
-      </c>
-      <c r="P47">
+      <c r="N47" s="17">
+        <v>2</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="12.75">
+    <row r="48" spans="2:15" ht="12.75">
       <c r="B48" s="12"/>
       <c r="C48" s="20"/>
       <c r="D48" s="10"/>
@@ -4559,7 +4417,7 @@
         <v>13</v>
       </c>
       <c r="F48" s="10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
@@ -4582,18 +4440,15 @@
       <c r="M48" s="10">
         <v>0</v>
       </c>
-      <c r="N48" s="11">
-        <v>0</v>
-      </c>
-      <c r="O48" s="10">
-        <v>15</v>
-      </c>
-      <c r="P48">
+      <c r="N48" s="10">
+        <v>10</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="12.75">
+    <row r="49" spans="2:15" ht="12.75">
       <c r="B49" s="12"/>
       <c r="C49" s="20"/>
       <c r="D49" s="10"/>
@@ -4624,18 +4479,15 @@
       <c r="M49" s="10">
         <v>0</v>
       </c>
-      <c r="N49" s="11">
-        <v>0</v>
-      </c>
-      <c r="O49" s="10">
-        <v>5</v>
-      </c>
-      <c r="P49">
+      <c r="N49" s="10">
+        <v>5</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="12.75">
+    <row r="50" spans="2:15" ht="12.75">
       <c r="B50" s="12"/>
       <c r="C50" s="20"/>
       <c r="D50" s="10"/>
@@ -4643,7 +4495,7 @@
         <v>15</v>
       </c>
       <c r="F50" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
@@ -4666,18 +4518,15 @@
       <c r="M50" s="10">
         <v>0</v>
       </c>
-      <c r="N50" s="11">
-        <v>0</v>
-      </c>
-      <c r="O50" s="10">
-        <v>5</v>
-      </c>
-      <c r="P50">
+      <c r="N50" s="10">
+        <v>2</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="15.75" customHeight="1">
+    <row r="51" spans="2:15" ht="15.75" customHeight="1">
       <c r="B51" s="13"/>
       <c r="C51" s="21"/>
       <c r="D51" s="15"/>
@@ -4685,7 +4534,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
@@ -4708,26 +4557,23 @@
       <c r="M51" s="15">
         <v>0</v>
       </c>
-      <c r="N51" s="22">
-        <v>0</v>
-      </c>
-      <c r="O51" s="15">
-        <v>5</v>
-      </c>
-      <c r="P51">
+      <c r="N51" s="15">
+        <v>1</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" ht="15.75" customHeight="1">
+    <row r="52" spans="2:15" ht="15.75" customHeight="1">
       <c r="B52" s="16">
         <v>10</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>12</v>
@@ -4748,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L52" s="17">
         <v>0</v>
@@ -4756,18 +4602,15 @@
       <c r="M52" s="17">
         <v>0</v>
       </c>
-      <c r="N52" s="18">
-        <v>0</v>
-      </c>
-      <c r="O52" s="17">
+      <c r="N52" s="17">
         <v>10</v>
       </c>
-      <c r="P52">
+      <c r="O52">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" ht="15.75" customHeight="1">
       <c r="B53" s="12"/>
       <c r="C53" s="20"/>
       <c r="D53" s="10"/>
@@ -4775,7 +4618,7 @@
         <v>13</v>
       </c>
       <c r="F53" s="10">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -4790,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L53" s="10">
         <v>0</v>
@@ -4798,18 +4641,15 @@
       <c r="M53" s="10">
         <v>0</v>
       </c>
-      <c r="N53" s="11">
-        <v>0</v>
-      </c>
-      <c r="O53" s="10">
-        <v>40</v>
-      </c>
-      <c r="P53">
+      <c r="N53" s="10">
+        <v>15</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" ht="15.75" customHeight="1">
       <c r="B54" s="12"/>
       <c r="C54" s="20"/>
       <c r="D54" s="10"/>
@@ -4817,7 +4657,7 @@
         <v>14</v>
       </c>
       <c r="F54" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
@@ -4840,18 +4680,15 @@
       <c r="M54" s="10">
         <v>0</v>
       </c>
-      <c r="N54" s="11">
-        <v>0</v>
-      </c>
-      <c r="O54" s="10">
-        <v>20</v>
-      </c>
-      <c r="P54">
+      <c r="N54" s="10">
+        <v>5</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="15.75" customHeight="1">
+    <row r="55" spans="2:15" ht="15.75" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="20"/>
       <c r="D55" s="10"/>
@@ -4882,18 +4719,15 @@
       <c r="M55" s="10">
         <v>0</v>
       </c>
-      <c r="N55" s="11">
-        <v>0</v>
-      </c>
-      <c r="O55" s="10">
-        <v>5</v>
-      </c>
-      <c r="P55">
+      <c r="N55" s="10">
+        <v>5</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="15.75" customHeight="1">
+    <row r="56" spans="2:15" ht="15.75" customHeight="1">
       <c r="B56" s="13"/>
       <c r="C56" s="21"/>
       <c r="D56" s="15"/>
@@ -4924,18 +4758,15 @@
       <c r="M56" s="15">
         <v>0</v>
       </c>
-      <c r="N56" s="22">
-        <v>0</v>
-      </c>
-      <c r="O56" s="15">
-        <v>5</v>
-      </c>
-      <c r="P56">
+      <c r="N56" s="15">
+        <v>5</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="15.75" customHeight="1">
+    <row r="57" spans="2:15" ht="15.75" customHeight="1">
       <c r="B57" s="16">
         <v>11</v>
       </c>
@@ -4943,13 +4774,13 @@
         <v>17</v>
       </c>
       <c r="D57" s="10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G57" s="17">
         <v>0</v>
@@ -4972,18 +4803,15 @@
       <c r="M57" s="17">
         <v>0</v>
       </c>
-      <c r="N57" s="18">
-        <v>0</v>
-      </c>
-      <c r="O57" s="17">
-        <v>10</v>
-      </c>
-      <c r="P57">
+      <c r="N57" s="17">
+        <v>2</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="15.75" customHeight="1">
+    <row r="58" spans="2:15" ht="15.75" customHeight="1">
       <c r="B58" s="12"/>
       <c r="C58" s="20"/>
       <c r="D58" s="10"/>
@@ -4991,7 +4819,7 @@
         <v>13</v>
       </c>
       <c r="F58" s="10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
@@ -5014,18 +4842,15 @@
       <c r="M58" s="10">
         <v>0</v>
       </c>
-      <c r="N58" s="11">
-        <v>0</v>
-      </c>
-      <c r="O58" s="10">
-        <v>15</v>
-      </c>
-      <c r="P58">
+      <c r="N58" s="10">
+        <v>5</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="15.75" customHeight="1">
+    <row r="59" spans="2:15" ht="15.75" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="20"/>
       <c r="D59" s="10"/>
@@ -5033,7 +4858,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G59" s="10">
         <v>0</v>
@@ -5056,18 +4881,15 @@
       <c r="M59" s="10">
         <v>0</v>
       </c>
-      <c r="N59" s="11">
-        <v>0</v>
-      </c>
-      <c r="O59" s="10">
-        <v>5</v>
-      </c>
-      <c r="P59">
+      <c r="N59" s="10">
+        <v>1</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="15.75" customHeight="1">
+    <row r="60" spans="2:15" ht="15.75" customHeight="1">
       <c r="B60" s="12"/>
       <c r="C60" s="20"/>
       <c r="D60" s="10"/>
@@ -5075,7 +4897,7 @@
         <v>15</v>
       </c>
       <c r="F60" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G60" s="10">
         <v>0</v>
@@ -5098,18 +4920,15 @@
       <c r="M60" s="10">
         <v>0</v>
       </c>
-      <c r="N60" s="11">
-        <v>0</v>
-      </c>
-      <c r="O60" s="10">
-        <v>5</v>
-      </c>
-      <c r="P60">
+      <c r="N60" s="10">
+        <v>1</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:16" ht="15.75" customHeight="1">
+    <row r="61" spans="2:15" ht="15.75" customHeight="1">
       <c r="B61" s="13"/>
       <c r="C61" s="21"/>
       <c r="D61" s="15"/>
@@ -5117,7 +4936,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
@@ -5140,80 +4959,73 @@
       <c r="M61" s="15">
         <v>0</v>
       </c>
-      <c r="N61" s="22">
-        <v>0</v>
-      </c>
-      <c r="O61" s="15">
-        <v>5</v>
-      </c>
-      <c r="P61">
+      <c r="N61" s="15">
+        <v>1</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:16" ht="15.75" customHeight="1">
+    <row r="62" spans="2:15" ht="15.75" customHeight="1">
       <c r="C62" s="20"/>
       <c r="D62" s="3"/>
       <c r="E62" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="24">
-        <f t="shared" ref="F62:N62" si="1">SUM(F7:F61)</f>
-        <v>466</v>
+        <f t="shared" ref="F62" si="1">SUM(F7:F61)</f>
+        <v>316</v>
       </c>
       <c r="G62" s="24">
         <f>F65-SUM(G7:G61)</f>
-        <v>448</v>
+        <v>297</v>
       </c>
       <c r="H62" s="24">
         <f>G62-SUM(H7:H61)</f>
-        <v>443</v>
+        <v>265</v>
       </c>
       <c r="I62" s="24">
-        <f>H62-SUM(I7:I61)</f>
-        <v>362</v>
+        <f t="shared" ref="I62:M62" si="2">H62-SUM(I7:I61)</f>
+        <v>200</v>
       </c>
       <c r="J62" s="24">
-        <f>I62-SUM(J7:J61)</f>
-        <v>337</v>
+        <f t="shared" si="2"/>
+        <v>152</v>
       </c>
       <c r="K62" s="24">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>118</v>
       </c>
       <c r="L62" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="M62" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" ht="15.75" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" ht="15.75" customHeight="1">
       <c r="C63" s="20"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="10" t="s">
-        <v>20</v>
+      <c r="H63" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" s="10" t="s">
+      <c r="J63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="L63" s="3" t="s">
@@ -5222,96 +5034,88 @@
       <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N63" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="2:15" ht="15.75" customHeight="1">
       <c r="C64" s="20"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="10" t="s">
-        <v>39</v>
+      <c r="F64" s="10">
+        <v>0</v>
       </c>
       <c r="G64" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K64" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L64" s="10">
-        <v>5</v>
-      </c>
-      <c r="M64" s="10">
         <v>6</v>
       </c>
-      <c r="N64" s="10">
+      <c r="M64" s="75">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" ht="15.75" customHeight="1">
+      <c r="N64" s="75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" customHeight="1">
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
       <c r="E65" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F65" s="10">
         <f>SUM(D7:D61)</f>
-        <v>466</v>
+        <v>316</v>
       </c>
       <c r="G65" s="10">
-        <f t="shared" ref="G65:J65" si="2">F65-$F66</f>
-        <v>418.25</v>
+        <f t="shared" ref="G65:J65" si="3">F65-$F66</f>
+        <v>277</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" si="2"/>
-        <v>370.5</v>
+        <f>G65-$F66</f>
+        <v>238</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="2"/>
-        <v>322.75</v>
+        <f t="shared" si="3"/>
+        <v>199</v>
       </c>
       <c r="J65" s="10">
-        <f t="shared" si="2"/>
-        <v>275</v>
+        <f t="shared" si="3"/>
+        <v>160</v>
       </c>
       <c r="K65" s="10">
-        <f t="shared" ref="K65" si="3">J65-$F66</f>
-        <v>227.25</v>
+        <f t="shared" ref="K65" si="4">J65-$F66</f>
+        <v>121</v>
       </c>
       <c r="L65" s="10">
-        <f t="shared" ref="L65" si="4">K65-$F66</f>
-        <v>179.5</v>
+        <f t="shared" ref="L65" si="5">K65-$F66</f>
+        <v>82</v>
       </c>
       <c r="M65" s="10">
-        <f t="shared" ref="M65" si="5">L65-$F66</f>
-        <v>131.75</v>
-      </c>
-      <c r="N65" s="10">
-        <f t="shared" ref="N65" si="6">M65-$F66</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" ht="15.75" customHeight="1">
+        <f t="shared" ref="M65" si="6">L65-$F66</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" customHeight="1">
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
       <c r="E66" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F66" s="10">
-        <f>191/4</f>
-        <v>47.75</v>
+        <v>39</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -5320,27 +5124,26 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-    </row>
-    <row r="67" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="2:13" ht="15.75" customHeight="1">
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
     </row>
-    <row r="68" spans="2:14" ht="15.75" customHeight="1">
+    <row r="68" spans="2:13" ht="15.75" customHeight="1">
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
     </row>
-    <row r="69" spans="2:14" ht="15.75" customHeight="1">
+    <row r="69" spans="2:13" ht="15.75" customHeight="1">
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
     </row>
-    <row r="70" spans="2:14" ht="15.75" customHeight="1">
+    <row r="70" spans="2:13" ht="15.75" customHeight="1">
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5348,7 +5151,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C62:C64">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="20"/>
         <cfvo type="max"/>
@@ -5358,6 +5161,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:J66 D7:D11 F7:J11 E17 F17:J26 D17:D26 D37:D46 F57:J62 D57:D61 F37:J46">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:J16 E12 D12:D16">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D36 F27:J36">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:J51 D47:D51">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:J56 D52:D56">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5369,115 +5220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:J16 E12 D12:D16">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFFFEBB3"/>
-        <color rgb="FFBF9000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D36 F27:J36">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFFFEBB3"/>
-        <color rgb="FFBF9000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:J51 D47:D51">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFFFEBB3"/>
-        <color rgb="FFBF9000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52:J56 D52:D56">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFFFEBB3"/>
-        <color rgb="FFBF9000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65:N66 K7:N11 K17:N26 K37:N46 K57:N62">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFFFEBB3"/>
-        <color rgb="FFBF9000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:N16">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFFFEBB3"/>
-        <color rgb="FFBF9000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:N36">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFFFEBB3"/>
-        <color rgb="FFBF9000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47:N51">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFFFEBB3"/>
-        <color rgb="FFBF9000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:N56">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFFFEBB3"/>
-        <color rgb="FFBF9000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O11 O17:O26 O57:O61 O37:O46">
+  <conditionalFormatting sqref="N7:N11 N17:N26 N57:N61 N37:N46 N64">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5489,7 +5232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O16">
+  <conditionalFormatting sqref="N12:N16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5501,7 +5244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O36">
+  <conditionalFormatting sqref="N27:N36">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5513,7 +5256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47:O51">
+  <conditionalFormatting sqref="N47:N51">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5525,8 +5268,68 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O52:O56">
+  <conditionalFormatting sqref="N52:N56">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:M66 K7:M11 K17:M26 K37:M46 K57:M62 M64">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:M16">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:M36">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:M51">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFFEBB3"/>
+        <color rgb="FFBF9000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:M56">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="20"/>

--- a/Gestion de projet/3 Product-Sprint Backlog.xlsx
+++ b/Gestion de projet/3 Product-Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\formationJava\Dossier Git\git clone\ProxiBanqueV4\ProxiBanqueV4\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7301734F-94F8-4E92-8882-E96216F9B32C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3FD70D65-4265-462D-BE28-E18139B7935B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17925" windowHeight="7740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="7740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Story Mapping" sheetId="2" r:id="rId1"/>
@@ -830,6 +830,10 @@
     <xf numFmtId="0" fontId="15" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,10 +861,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1941,7 +1941,7 @@
   <dimension ref="A4:O44"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1977,20 +1977,20 @@
       <c r="D5" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="65" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="43"/>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
       <c r="O5" s="43"/>
     </row>
     <row r="6" spans="2:15" ht="5.45" customHeight="1">
@@ -2054,7 +2054,7 @@
       <c r="O8" s="44"/>
     </row>
     <row r="9" spans="2:15" ht="38.25">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="71" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="45"/>
@@ -2084,7 +2084,7 @@
       <c r="O9" s="43"/>
     </row>
     <row r="10" spans="2:15" ht="6" customHeight="1">
-      <c r="B10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="47"/>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
@@ -2100,7 +2100,7 @@
       <c r="O10" s="44"/>
     </row>
     <row r="11" spans="2:15" ht="38.25">
-      <c r="B11" s="70"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="45"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -2122,7 +2122,7 @@
       <c r="O11" s="43"/>
     </row>
     <row r="12" spans="2:15" ht="4.9000000000000004" customHeight="1">
-      <c r="B12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="47"/>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
@@ -2138,7 +2138,7 @@
       <c r="O12" s="44"/>
     </row>
     <row r="13" spans="2:15" ht="25.5">
-      <c r="B13" s="70"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="45"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -2158,7 +2158,7 @@
       <c r="O13" s="43"/>
     </row>
     <row r="14" spans="2:15" ht="6" customHeight="1">
-      <c r="B14" s="70"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="45"/>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
@@ -2174,7 +2174,7 @@
       <c r="O14" s="43"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B15" s="70"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="45"/>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
@@ -2194,7 +2194,7 @@
       <c r="O15" s="43"/>
     </row>
     <row r="16" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B16" s="71"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
@@ -2349,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2371,12 +2371,12 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="30"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
@@ -2668,8 +2668,8 @@
   </sheetPr>
   <dimension ref="B4:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T65" sqref="T65"/>
+    <sheetView topLeftCell="L25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U60" sqref="U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5060,12 +5060,10 @@
       <c r="L64" s="10">
         <v>6</v>
       </c>
-      <c r="M64" s="75">
+      <c r="M64" s="66">
         <v>7</v>
       </c>
-      <c r="N64" s="75">
-        <v>8</v>
-      </c>
+      <c r="N64" s="66"/>
     </row>
     <row r="65" spans="2:13" ht="15.75" customHeight="1">
       <c r="B65" s="25"/>
